--- a/MARK/storage/uploads/选择回答.xlsx
+++ b/MARK/storage/uploads/选择回答.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIT\MARK\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16211\Desktop\MARK_mobile\MARK\storage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3055B0-9F5A-4936-80B7-34644744B3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E33643-E342-48D7-85FC-A54EEF948437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>选项A</t>
   </si>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -252,9 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -540,7 +541,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -585,7 +586,7 @@
       <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -611,6 +612,9 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -634,6 +638,9 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -657,6 +664,9 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -680,6 +690,9 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -703,6 +716,9 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -723,6 +739,9 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -743,6 +762,9 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -763,6 +785,9 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -786,6 +811,9 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -808,6 +836,9 @@
       </c>
       <c r="G11" t="s">
         <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
